--- a/Auto_RRSIandWiFiSAR_Report/WiFiSARQUERY.xlsx
+++ b/Auto_RRSIandWiFiSAR_Report/WiFiSARQUERY.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="wifisarquery" sheetId="1" state="visible" r:id="rId1"/>
@@ -44,15 +44,15 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B152"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>7228979800008</t>
+          <t>7224908800005</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -448,31 +448,31 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>7228124200006</t>
+          <t>7224908800006</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>no log</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>7228124200010</t>
+          <t>7224908800007</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Value Match</t>
+          <t>no log</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>7228124200008</t>
+          <t>7228101300001</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -484,7 +484,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>7228124200003</t>
+          <t>7228101400001</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -496,7 +496,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>7228101900001</t>
+          <t>7228101600001</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -508,7 +508,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>7228124200002</t>
+          <t>7228101700001</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -520,7 +520,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>7228124200004</t>
+          <t>7228101900001</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -532,19 +532,19 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7224908800005</t>
+          <t>7228124100001</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>no log</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>7228101600001</t>
+          <t>7228124200002</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -556,7 +556,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>7228124200005</t>
+          <t>7228124200003</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -568,7 +568,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>7228101300001</t>
+          <t>7228124200004</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -580,19 +580,19 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>7224908800006</t>
+          <t>7228124200005</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>no log</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>7228101400001</t>
+          <t>7228124200006</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -604,31 +604,31 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>7224908800007</t>
+          <t>7228124200007</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>no log</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>7228979800009</t>
+          <t>7228124200008</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>no log</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>7228101700001</t>
+          <t>7228124200010</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -640,31 +640,31 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>7228124100001</t>
+          <t>7228124200012</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Value Not Match</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>7228979800010</t>
+          <t>7228124200013</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>no log</t>
+          <t>Value Match</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>7228124200007</t>
+          <t>7228124200014</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -673,7 +673,1579 @@
         </is>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>7228124200017</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>7228124200018</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>7228124200019</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>7228124200020</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>7228124200021</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>7228124200022</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>7228124200023</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>7228124200024</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>7228124200025</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>7228124200026</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>7228124200027</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>7228124200028</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>7228124200029</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>7228124200030</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>7228124200031</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>7228124200033</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>7228124200034</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>7228124200035</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>7228124200036</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>7228124200037</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>7228124200038</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>7228124200039</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>7228124200040</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>7228124200041</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>7228124200042</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>7228124200043</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>7228124200044</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>7228124200045</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>7228124200046</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>7228124200047</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>7228124200048</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>7228124200049</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>7228124200051</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>7228124200052</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>7228124200053</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>7228124200054</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>7228124200055</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>7228124200056</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>7228124200057</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>7228124200058</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>7228124200059</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>7228124200060</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>7228124200061</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>7228124200062</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>7228124200064</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>7228124200065</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>7228124200066</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>7228124200067</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>7228124200068</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>7228124200069</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>7228124200070</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>7228124200071</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>7228124200075</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>7228124200076</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>7228124200077</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>7228124200078</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>7228124200079</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>7228124200080</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>7228124200081</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>7228124200082</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>7228124200084</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>7228124200085</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>7228124300002</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>7228124300003</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>7228124300006</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>7228124300009</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>7228124300010</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>7228124300011</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>7228124300012</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>7228124300013</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>7228124300014</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>7228124300015</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>7228124300016</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>7228124300018</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>7228124300019</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>7228124300020</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>7228124300023</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>7228124300024</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>7228124300025</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>7228124300026</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>7228124300028</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>7228124300029</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>7228124300030</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>7228124300031</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>7228124300032</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>7228124300033</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>7228124300034</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>7228124300035</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>7228124300036</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>7228124300037</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>7228124300038</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>7228124300039</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>7228124300040</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>7228124300041</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>7228124300042</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>7228124300045</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>7228124300047</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>7228124300048</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>7228124300049</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>7228124300050</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>7228124300051</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>7228124300053</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>7228124300054</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>7228124300055</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>7228124300056</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>7228124300057</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>7228124300058</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>7228124300059</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>7228124300060</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>7228124300061</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>7228124300062</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>7228124300063</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>7228124300065</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>7228124300066</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>7228124300067</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>7228124300068</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>7228124300069</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>7228124300073</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>7228124300074</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>7228124300076</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>7228124300077</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>7228124300078</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>7228124300081</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>7228124300082</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>7228124300083</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>7228124300084</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>7228124300086</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>7228125100001</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Value Match</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>7228979800008</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>no log</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>7228979800009</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>no log</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>7228979800010</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>no log</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Auto_RRSIandWiFiSAR_Report/WiFiSARQUERY.xlsx
+++ b/Auto_RRSIandWiFiSAR_Report/WiFiSARQUERY.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -25,13 +25,21 @@
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <color rgb="00F8F8FF"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00292421"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -46,8 +54,9 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -422,12 +431,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>UNIT PN</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Result</t>
         </is>

--- a/Auto_RRSIandWiFiSAR_Report/WiFiSARQUERY.xlsx
+++ b/Auto_RRSIandWiFiSAR_Report/WiFiSARQUERY.xlsx
@@ -429,6 +429,10 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="1" min="1" width="16"/>
+    <col customWidth="1" max="2" min="2" width="14"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
